--- a/SETTING CASES.xlsx
+++ b/SETTING CASES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="0" windowWidth="19420" windowHeight="11020"/>
@@ -10,24 +10,11 @@
     <sheet name="SETTING" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>Stock-recluta</t>
   </si>
@@ -71,12 +58,6 @@
     <t>bock</t>
   </si>
   <si>
-    <t>dev vector</t>
-  </si>
-  <si>
-    <t>simple dev</t>
-  </si>
-  <si>
     <t>age specific</t>
   </si>
   <si>
@@ -156,6 +137,36 @@
   </si>
   <si>
     <t>mod8</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>model4</t>
+  </si>
+  <si>
+    <t>model5</t>
+  </si>
+  <si>
+    <t>model6</t>
+  </si>
+  <si>
+    <t>model7</t>
+  </si>
+  <si>
+    <t>model8</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>rev</t>
   </si>
 </sst>
 </file>
@@ -165,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +192,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,7 +238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -238,25 +291,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -268,9 +341,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -531,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,52 +609,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" style="2" customWidth="1"/>
     <col min="5" max="6" width="10.90625" style="2"/>
     <col min="7" max="7" width="9.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="2"/>
+    <col min="8" max="9" width="10.90625" style="2"/>
+    <col min="12" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -594,26 +662,26 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -623,26 +691,26 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -652,55 +720,55 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -710,22 +778,22 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -737,413 +805,438 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16">
+        <v>145.27099999999999</v>
+      </c>
+      <c r="D11" s="16">
+        <v>145.19800000000001</v>
+      </c>
+      <c r="E11" s="16">
+        <v>150.238</v>
+      </c>
+      <c r="F11" s="7">
+        <v>269.22500000000002</v>
+      </c>
+      <c r="G11" s="18">
+        <v>147.346</v>
+      </c>
+      <c r="H11" s="12">
+        <v>721.19299999999998</v>
+      </c>
+      <c r="I11" s="12">
+        <v>818.85799999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C12" s="16">
+        <v>18.8429</v>
+      </c>
+      <c r="D12" s="16">
+        <v>18.698599999999999</v>
+      </c>
+      <c r="E12" s="16">
+        <v>20.828199999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10.5322</v>
+      </c>
+      <c r="G12" s="18">
+        <v>15.0832</v>
+      </c>
+      <c r="H12" s="12">
+        <v>9.7092899999999993</v>
+      </c>
+      <c r="I12" s="12">
+        <v>12.288600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16">
+        <v>120.042</v>
+      </c>
+      <c r="D13" s="16">
+        <v>120.104</v>
+      </c>
+      <c r="E13" s="16">
+        <v>123.72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>220.04</v>
+      </c>
+      <c r="G13" s="18">
+        <v>122.458</v>
+      </c>
+      <c r="H13" s="12">
+        <v>628.43799999999999</v>
+      </c>
+      <c r="I13" s="12">
+        <v>615.61400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.20403499999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.20017499999999999</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.25979E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8.9986999999999998E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.13631399999999999</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3.7607599999999999</v>
+      </c>
+      <c r="I14" s="12">
+        <v>3.2927900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.04895</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1.3822399999999999</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1.5216099999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.16275500000000001</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.94477900000000004</v>
+      </c>
+      <c r="H15" s="12">
+        <v>162.755</v>
+      </c>
+      <c r="I15" s="12">
+        <v>162.755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16">
+        <v>13.863300000000001</v>
+      </c>
+      <c r="D16" s="16">
+        <v>14.139200000000001</v>
+      </c>
+      <c r="E16" s="16">
+        <v>14.235300000000001</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18">
+        <v>13.758699999999999</v>
+      </c>
+      <c r="H16" s="12">
+        <v>12</v>
+      </c>
+      <c r="I16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.81952000000000003</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.82357400000000003</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.78898599999999997</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.68695899999999999</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.30651299999999998</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.26745600000000003</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.11082500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16">
         <v>37</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>148.34299999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>150.131</v>
-      </c>
-      <c r="D11" s="1">
-        <v>153.089</v>
-      </c>
-      <c r="E11" s="1">
-        <v>156.73599999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>269.22500000000002</v>
-      </c>
-      <c r="G11" s="10">
-        <v>733.78399999999999</v>
-      </c>
-      <c r="H11" s="10">
-        <v>818.85799999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>15.195399999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20.594000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>19.496300000000002</v>
-      </c>
-      <c r="E12" s="1">
-        <v>21.3443</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10.5322</v>
-      </c>
-      <c r="G12" s="10">
-        <v>9.5124200000000005</v>
-      </c>
-      <c r="H12" s="10">
-        <v>12.288600000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>122.295</v>
-      </c>
-      <c r="C13" s="1">
-        <v>124.995</v>
-      </c>
-      <c r="D13" s="1">
-        <v>129.04</v>
-      </c>
-      <c r="E13" s="1">
-        <v>131.06200000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>220.04</v>
-      </c>
-      <c r="G13" s="10">
-        <v>630.54399999999998</v>
-      </c>
-      <c r="H13" s="10">
-        <v>615.61400000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.95933599999999997</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.14962700000000001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.12990499999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.3568299999999999E-3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8.9986999999999998E-2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>4.2697700000000003</v>
-      </c>
-      <c r="H14" s="10">
-        <v>3.2927900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.0004500000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.2390300000000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.81934</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.9187700000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.16275500000000001</v>
-      </c>
-      <c r="G15" s="10">
-        <v>162.755</v>
-      </c>
-      <c r="H15" s="10">
-        <v>162.755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1">
-        <v>13.816000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14.621600000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>14.414</v>
-      </c>
-      <c r="E16" s="1">
-        <v>14.4672</v>
-      </c>
-      <c r="F16" s="1">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10">
-        <v>12</v>
-      </c>
-      <c r="H16" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.70157400000000003</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.62566500000000003</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.70030499999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.68629499999999999</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="D20" s="16">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7">
+        <v>37</v>
+      </c>
+      <c r="G20" s="18">
+        <v>37</v>
+      </c>
+      <c r="H20" s="12">
+        <v>75</v>
+      </c>
+      <c r="I20" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.27315800000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.11082500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="C21" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1">
-        <v>37</v>
-      </c>
-      <c r="G20" s="10">
-        <v>37</v>
-      </c>
-      <c r="H20" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="16">
+        <v>16648.5</v>
+      </c>
+      <c r="D22" s="16">
+        <v>16054.5</v>
+      </c>
+      <c r="E22" s="16">
+        <v>17673.2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>684.82</v>
+      </c>
+      <c r="G22" s="18">
+        <v>677.98400000000004</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1252.9000000000001</v>
+      </c>
+      <c r="I22" s="12">
+        <v>8285.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="16">
+        <v>0.78424400000000005</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.78792200000000001</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.71477800000000002</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.26299099999999997</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.399897</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.821496</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.36934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
-        <v>685.697</v>
-      </c>
-      <c r="C22" s="1">
-        <v>27659.8</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21131.4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>22286.2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>684.82</v>
-      </c>
-      <c r="G22" s="10">
-        <v>684.82</v>
-      </c>
-      <c r="H22" s="10">
-        <v>8285.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.39672200000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.56644099999999997</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.61229699999999998</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.58192500000000003</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.26299099999999997</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0.48525800000000002</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1.36934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.82650199999999996</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.40088000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.488819</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.48640299999999997</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="16">
+        <v>0.48155700000000001</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.49595899999999998</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.49490400000000001</v>
+      </c>
+      <c r="F24" s="7">
         <v>1.3634599999999999</v>
       </c>
-      <c r="G24" s="10">
-        <v>1.1996800000000001</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="G24" s="18">
+        <v>0.83841100000000002</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.02475</v>
+      </c>
+      <c r="I24" s="12">
         <v>0.61135799999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1151,7 +1244,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1159,7 +1252,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1167,6 +1260,237 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>147.38200000000001</v>
+      </c>
+      <c r="D29" s="17">
+        <v>148.34299999999999</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15.2157</v>
+      </c>
+      <c r="D30" s="17">
+        <v>15.195399999999999</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2">
+        <v>122.337</v>
+      </c>
+      <c r="D31" s="17">
+        <v>122.295</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.67166400000000004</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.95933599999999997</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.96012699999999995</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1.0004500000000001</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13.774800000000001</v>
+      </c>
+      <c r="D34" s="17">
+        <v>13.816000000000001</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.56308999999999998</v>
+      </c>
+      <c r="D35" s="17">
+        <v>0.70157400000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.27564699999999998</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.27315800000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>75</v>
+      </c>
+      <c r="D38" s="17">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.19999900000000001</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1466.4</v>
+      </c>
+      <c r="D40" s="17">
+        <v>685.697</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.54485499999999998</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.39672200000000002</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.63864699999999996</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.82650199999999996</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
     </row>
@@ -1180,8 +1504,8 @@
       <c r="A147" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:A27 C25:G27 B11:F24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A11:A27 C25:G27">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1192,8 +1516,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:G27 B11:F24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="A11:A24 C25:G27">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1204,6 +1528,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SETTING CASES.xlsx
+++ b/SETTING CASES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Stock-recluta</t>
   </si>
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,7 @@
     <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" style="2" customWidth="1"/>
     <col min="5" max="6" width="10.90625" style="2"/>
-    <col min="7" max="7" width="9.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.90625" style="2"/>
     <col min="12" max="16384" width="10.90625" style="2"/>
   </cols>
@@ -1270,6 +1270,12 @@
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
@@ -1285,7 +1291,15 @@
         <v>148.34299999999999</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2">
+        <v>156.92500000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
@@ -1301,7 +1315,15 @@
         <v>15.195399999999999</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2">
+        <v>16.3627</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -1317,7 +1339,15 @@
         <v>122.295</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2">
+        <v>130.047</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
@@ -1333,9 +1363,17 @@
         <v>0.95933599999999997</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.97024299999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1349,9 +1387,17 @@
         <v>1.0004500000000001</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2.7384499999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -1365,9 +1411,17 @@
         <v>13.816000000000001</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="3">
+        <v>6</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="2">
+        <v>14.822900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -1380,8 +1434,17 @@
       <c r="D35" s="17">
         <v>0.70157400000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="2">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.38007200000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -1395,9 +1458,17 @@
         <v>25</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="3">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.34071400000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>9</v>
       </c>
@@ -1410,8 +1481,17 @@
       <c r="D37" s="17">
         <v>0.27315800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="2">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>10</v>
       </c>
@@ -1425,9 +1505,17 @@
         <v>37</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>11</v>
       </c>
@@ -1441,9 +1529,17 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="3">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2854.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>12</v>
       </c>
@@ -1457,9 +1553,17 @@
         <v>685.697</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="3">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.36743100000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>13</v>
       </c>
@@ -1473,9 +1577,17 @@
         <v>0.39672200000000002</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="3">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.46838800000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>14</v>
       </c>

--- a/SETTING CASES.xlsx
+++ b/SETTING CASES.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="9" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Stock-recluta</t>
   </si>
@@ -167,6 +168,12 @@
   </si>
   <si>
     <t>rev</t>
+  </si>
+  <si>
+    <t>Mod e y f</t>
+  </si>
+  <si>
+    <t>evaluan proyeccion con cambios en F.-</t>
   </si>
 </sst>
 </file>
@@ -601,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -1654,4 +1661,29 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>